--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H2">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J2">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.62136022405498</v>
+        <v>0.111678</v>
       </c>
       <c r="N2">
-        <v>1.62136022405498</v>
+        <v>0.335034</v>
       </c>
       <c r="O2">
-        <v>0.2564868548299722</v>
+        <v>0.01499007198665366</v>
       </c>
       <c r="P2">
-        <v>0.2564868548299722</v>
+        <v>0.01499007198665366</v>
       </c>
       <c r="Q2">
-        <v>41.29564302270411</v>
+        <v>4.551257237324</v>
       </c>
       <c r="R2">
-        <v>41.29564302270411</v>
+        <v>40.961315135916</v>
       </c>
       <c r="S2">
-        <v>0.003562694758190455</v>
+        <v>0.0003187693718374694</v>
       </c>
       <c r="T2">
-        <v>0.003562694758190455</v>
+        <v>0.0003187693718374694</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.4697521315928</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H3">
-        <v>25.4697521315928</v>
+        <v>122.260174</v>
       </c>
       <c r="I3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J3">
-        <v>0.0138903600363933</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.7000562287679</v>
+        <v>2.242708666666667</v>
       </c>
       <c r="N3">
-        <v>4.7000562287679</v>
+        <v>6.728126</v>
       </c>
       <c r="O3">
-        <v>0.7435131451700278</v>
+        <v>0.3010294270888212</v>
       </c>
       <c r="P3">
-        <v>0.7435131451700278</v>
+        <v>0.3010294270888212</v>
       </c>
       <c r="Q3">
-        <v>119.7092671512672</v>
+        <v>91.39798393932489</v>
       </c>
       <c r="R3">
-        <v>119.7092671512672</v>
+        <v>822.581855453924</v>
       </c>
       <c r="S3">
-        <v>0.01032766527820284</v>
+        <v>0.006401501037695714</v>
       </c>
       <c r="T3">
-        <v>0.01032766527820284</v>
+        <v>0.006401501037695714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1687.31762033368</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H4">
-        <v>1687.31762033368</v>
+        <v>122.260174</v>
       </c>
       <c r="I4">
-        <v>0.9202071979771356</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J4">
-        <v>0.9202071979771356</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.62136022405498</v>
+        <v>0.02011033333333333</v>
       </c>
       <c r="N4">
-        <v>1.62136022405498</v>
+        <v>0.060331</v>
       </c>
       <c r="O4">
-        <v>0.2564868548299722</v>
+        <v>0.002699326137128775</v>
       </c>
       <c r="P4">
-        <v>0.2564868548299722</v>
+        <v>0.002699326137128775</v>
       </c>
       <c r="Q4">
-        <v>2735.749674956131</v>
+        <v>0.8195642841771111</v>
       </c>
       <c r="R4">
-        <v>2735.749674956131</v>
+        <v>7.376078557594001</v>
       </c>
       <c r="S4">
-        <v>0.2360210500010571</v>
+        <v>5.740215910124455E-05</v>
       </c>
       <c r="T4">
-        <v>0.2360210500010571</v>
+        <v>5.740215910124457E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1687.31762033368</v>
+        <v>40.75339133333333</v>
       </c>
       <c r="H5">
-        <v>1687.31762033368</v>
+        <v>122.260174</v>
       </c>
       <c r="I5">
-        <v>0.9202071979771356</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="J5">
-        <v>0.9202071979771356</v>
+        <v>0.02126536631186857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.7000562287679</v>
+        <v>5.075634</v>
       </c>
       <c r="N5">
-        <v>4.7000562287679</v>
+        <v>15.226902</v>
       </c>
       <c r="O5">
-        <v>0.7435131451700278</v>
+        <v>0.6812811747873964</v>
       </c>
       <c r="P5">
-        <v>0.7435131451700278</v>
+        <v>0.6812811747873964</v>
       </c>
       <c r="Q5">
-        <v>7930.487691359142</v>
+        <v>206.849298666772</v>
       </c>
       <c r="R5">
-        <v>7930.487691359142</v>
+        <v>1861.643688000948</v>
       </c>
       <c r="S5">
-        <v>0.6841861479760785</v>
+        <v>0.01448769374323414</v>
       </c>
       <c r="T5">
-        <v>0.6841861479760785</v>
+        <v>0.01448769374323414</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.3817458793937</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>36.3817458793937</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J6">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.62136022405498</v>
+        <v>0.111678</v>
       </c>
       <c r="N6">
-        <v>1.62136022405498</v>
+        <v>0.335034</v>
       </c>
       <c r="O6">
-        <v>0.2564868548299722</v>
+        <v>0.01499007198665366</v>
       </c>
       <c r="P6">
-        <v>0.2564868548299722</v>
+        <v>0.01499007198665366</v>
       </c>
       <c r="Q6">
-        <v>58.98791565052511</v>
+        <v>188.65645118992</v>
       </c>
       <c r="R6">
-        <v>58.98791565052511</v>
+        <v>1697.90806070928</v>
       </c>
       <c r="S6">
-        <v>0.005089058372796472</v>
+        <v>0.01321346944438066</v>
       </c>
       <c r="T6">
-        <v>0.005089058372796472</v>
+        <v>0.01321346944438066</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>36.3817458793937</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>36.3817458793937</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J7">
-        <v>0.01984140035624852</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.7000562287679</v>
+        <v>2.242708666666667</v>
       </c>
       <c r="N7">
-        <v>4.7000562287679</v>
+        <v>6.728126</v>
       </c>
       <c r="O7">
-        <v>0.7435131451700278</v>
+        <v>0.3010294270888212</v>
       </c>
       <c r="P7">
-        <v>0.7435131451700278</v>
+        <v>0.3010294270888212</v>
       </c>
       <c r="Q7">
-        <v>170.9962513338952</v>
+        <v>3788.583768568657</v>
       </c>
       <c r="R7">
-        <v>170.9962513338952</v>
+        <v>34097.25391711792</v>
       </c>
       <c r="S7">
-        <v>0.01475234198345204</v>
+        <v>0.2653518368850417</v>
       </c>
       <c r="T7">
-        <v>0.01475234198345204</v>
+        <v>0.2653518368850417</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>84.4588124548977</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>84.4588124548977</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.04606104163022263</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J8">
-        <v>0.04606104163022263</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.62136022405498</v>
+        <v>0.02011033333333333</v>
       </c>
       <c r="N8">
-        <v>1.62136022405498</v>
+        <v>0.060331</v>
       </c>
       <c r="O8">
-        <v>0.2564868548299722</v>
+        <v>0.002699326137128775</v>
       </c>
       <c r="P8">
-        <v>0.2564868548299722</v>
+        <v>0.002699326137128775</v>
       </c>
       <c r="Q8">
-        <v>136.9381590852905</v>
+        <v>33.97217105350222</v>
       </c>
       <c r="R8">
-        <v>136.9381590852905</v>
+        <v>305.74953948152</v>
       </c>
       <c r="S8">
-        <v>0.01181405169792822</v>
+        <v>0.002379405747025465</v>
       </c>
       <c r="T8">
-        <v>0.01181405169792822</v>
+        <v>0.002379405747025465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>84.4588124548977</v>
+        <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>84.4588124548977</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.04606104163022263</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="J9">
-        <v>0.04606104163022263</v>
+        <v>0.8814813868902838</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.7000562287679</v>
+        <v>5.075634</v>
       </c>
       <c r="N9">
-        <v>4.7000562287679</v>
+        <v>15.226902</v>
       </c>
       <c r="O9">
-        <v>0.7435131451700278</v>
+        <v>0.6812811747873964</v>
       </c>
       <c r="P9">
-        <v>0.7435131451700278</v>
+        <v>0.6812811747873964</v>
       </c>
       <c r="Q9">
-        <v>396.9611675529818</v>
+        <v>8574.214240753759</v>
       </c>
       <c r="R9">
-        <v>396.9611675529818</v>
+        <v>77167.92816678384</v>
       </c>
       <c r="S9">
-        <v>0.03424698993229441</v>
+        <v>0.600536674813836</v>
       </c>
       <c r="T9">
-        <v>0.03424698993229441</v>
+        <v>0.600536674813836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>100.9654023333333</v>
+      </c>
+      <c r="H10">
+        <v>302.896207</v>
+      </c>
+      <c r="I10">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="J10">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.111678</v>
+      </c>
+      <c r="N10">
+        <v>0.335034</v>
+      </c>
+      <c r="O10">
+        <v>0.01499007198665366</v>
+      </c>
+      <c r="P10">
+        <v>0.01499007198665366</v>
+      </c>
+      <c r="Q10">
+        <v>11.275614201782</v>
+      </c>
+      <c r="R10">
+        <v>101.480527816038</v>
+      </c>
+      <c r="S10">
+        <v>0.0007897423214639143</v>
+      </c>
+      <c r="T10">
+        <v>0.0007897423214639144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>100.9654023333333</v>
+      </c>
+      <c r="H11">
+        <v>302.896207</v>
+      </c>
+      <c r="I11">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="J11">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.242708666666667</v>
+      </c>
+      <c r="N11">
+        <v>6.728126</v>
+      </c>
+      <c r="O11">
+        <v>0.3010294270888212</v>
+      </c>
+      <c r="P11">
+        <v>0.3010294270888212</v>
+      </c>
+      <c r="Q11">
+        <v>226.4359828464536</v>
+      </c>
+      <c r="R11">
+        <v>2037.923845618082</v>
+      </c>
+      <c r="S11">
+        <v>0.0158595421549506</v>
+      </c>
+      <c r="T11">
+        <v>0.0158595421549506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>100.9654023333333</v>
+      </c>
+      <c r="H12">
+        <v>302.896207</v>
+      </c>
+      <c r="I12">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="J12">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02011033333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.060331</v>
+      </c>
+      <c r="O12">
+        <v>0.002699326137128775</v>
+      </c>
+      <c r="P12">
+        <v>0.002699326137128775</v>
+      </c>
+      <c r="Q12">
+        <v>2.030447896057444</v>
+      </c>
+      <c r="R12">
+        <v>18.274031064517</v>
+      </c>
+      <c r="S12">
+        <v>0.0001422122650126238</v>
+      </c>
+      <c r="T12">
+        <v>0.0001422122650126239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>100.9654023333333</v>
+      </c>
+      <c r="H13">
+        <v>302.896207</v>
+      </c>
+      <c r="I13">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="J13">
+        <v>0.05268435816499466</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.075634</v>
+      </c>
+      <c r="N13">
+        <v>15.226902</v>
+      </c>
+      <c r="O13">
+        <v>0.6812811747873964</v>
+      </c>
+      <c r="P13">
+        <v>0.6812811747873964</v>
+      </c>
+      <c r="Q13">
+        <v>512.463428906746</v>
+      </c>
+      <c r="R13">
+        <v>4612.170860160713</v>
+      </c>
+      <c r="S13">
+        <v>0.03589286142356752</v>
+      </c>
+      <c r="T13">
+        <v>0.03589286142356752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>85.41274733333334</v>
+      </c>
+      <c r="H14">
+        <v>256.238242</v>
+      </c>
+      <c r="I14">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="J14">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.111678</v>
+      </c>
+      <c r="N14">
+        <v>0.335034</v>
+      </c>
+      <c r="O14">
+        <v>0.01499007198665366</v>
+      </c>
+      <c r="P14">
+        <v>0.01499007198665366</v>
+      </c>
+      <c r="Q14">
+        <v>9.538724796692001</v>
+      </c>
+      <c r="R14">
+        <v>85.84852317022801</v>
+      </c>
+      <c r="S14">
+        <v>0.0006680908489716159</v>
+      </c>
+      <c r="T14">
+        <v>0.000668090848971616</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>85.41274733333334</v>
+      </c>
+      <c r="H15">
+        <v>256.238242</v>
+      </c>
+      <c r="I15">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="J15">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.242708666666667</v>
+      </c>
+      <c r="N15">
+        <v>6.728126</v>
+      </c>
+      <c r="O15">
+        <v>0.3010294270888212</v>
+      </c>
+      <c r="P15">
+        <v>0.3010294270888212</v>
+      </c>
+      <c r="Q15">
+        <v>191.5559086882769</v>
+      </c>
+      <c r="R15">
+        <v>1724.003178194492</v>
+      </c>
+      <c r="S15">
+        <v>0.01341654701113321</v>
+      </c>
+      <c r="T15">
+        <v>0.01341654701113321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>85.41274733333334</v>
+      </c>
+      <c r="H16">
+        <v>256.238242</v>
+      </c>
+      <c r="I16">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="J16">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.02011033333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.060331</v>
+      </c>
+      <c r="O16">
+        <v>0.002699326137128775</v>
+      </c>
+      <c r="P16">
+        <v>0.002699326137128775</v>
+      </c>
+      <c r="Q16">
+        <v>1.717678819789111</v>
+      </c>
+      <c r="R16">
+        <v>15.459109378102</v>
+      </c>
+      <c r="S16">
+        <v>0.0001203059659894415</v>
+      </c>
+      <c r="T16">
+        <v>0.0001203059659894416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>85.41274733333334</v>
+      </c>
+      <c r="H17">
+        <v>256.238242</v>
+      </c>
+      <c r="I17">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="J17">
+        <v>0.04456888863285297</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>5.075634</v>
+      </c>
+      <c r="N17">
+        <v>15.226902</v>
+      </c>
+      <c r="O17">
+        <v>0.6812811747873964</v>
+      </c>
+      <c r="P17">
+        <v>0.6812811747873964</v>
+      </c>
+      <c r="Q17">
+        <v>433.5238443984761</v>
+      </c>
+      <c r="R17">
+        <v>3901.714599586284</v>
+      </c>
+      <c r="S17">
+        <v>0.03036394480675871</v>
+      </c>
+      <c r="T17">
+        <v>0.03036394480675871</v>
       </c>
     </row>
   </sheetData>
